--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdministrationReport</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/administration-report</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -703,7 +703,7 @@
     <t>MedicationAdministration.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>MedicationAdministration.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
 </t>
   </si>
   <si>
@@ -1111,7 +1111,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item)
 </t>
   </si>
   <si>
@@ -1674,7 +1674,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/administration-report</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdministrationReport</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T08:26:42+00:00</t>
+    <t>2024-03-25T09:35:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -703,7 +703,7 @@
     <t>MedicationAdministration.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>MedicationAdministration.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
 </t>
   </si>
   <si>
@@ -916,10 +916,6 @@
     <t>MedicationAdministration.occurence[x]</t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
   </si>
   <si>
@@ -930,6 +926,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1068,7 +1067,7 @@
 </t>
   </si>
   <si>
-    <t>Who or what performed the medication administration</t>
+    <t>Person who administered the medication</t>
   </si>
   <si>
     <t>Indicates who or what performed the medication administration.</t>
@@ -1111,7 +1110,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem)
 </t>
   </si>
   <si>
@@ -1199,7 +1198,7 @@
     <t>MedicationAdministration.dosage.text</t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG</t>
+    <t>Textual dosage instructions</t>
   </si>
   <si>
     <t>Free text dosage can be used for cases where the dosage administered is too complex to code. When coded dosage is present, the free text dosage may still be present for display to humans.@@ -1303,6 +1302,134 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Value of the dose quantity</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit of the dose quantity</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1655,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1674,7 +1801,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4576,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
@@ -4921,13 +5048,13 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4966,14 +5093,14 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>288</v>
@@ -5018,7 +5145,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5036,10 +5163,10 @@
         <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5464,13 +5591,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
@@ -6254,13 +6381,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>75</v>
@@ -6592,7 +6719,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -7046,7 +7173,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -7627,17 +7754,15 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>88</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -7686,7 +7811,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7695,10 +7820,10 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>381</v>
+        <v>157</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7707,22 +7832,22 @@
         <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>158</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7741,16 +7866,16 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7788,19 +7913,19 @@
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>420</v>
+        <v>164</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7812,23 +7937,827 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="M56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7838,7 +8767,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdministrationReport</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/administration-report</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -703,7 +703,7 @@
     <t>MedicationAdministration.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Prescription)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>MedicationAdministration.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication)
+    <t xml:space="preserve">CodeableReference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication)
 </t>
   </si>
   <si>
@@ -1110,7 +1110,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item)
 </t>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1158,7 +1158,7 @@
 </t>
   </si>
   <si>
-    <t>Note</t>
+    <t>The administration report label and other note(s)</t>
   </si>
   <si>
     <t>Extra information about the medication administration that is not conveyed by the other attributes.</t>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-administration-report.xlsx
+++ b/main/ig/StructureDefinition-administration-report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -430,33 +430,101 @@
     <t>MedicationAdministration.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:dateTimePlannedStart</t>
+  </si>
+  <si>
+    <t>dateTimePlannedStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/date-time-start}
+</t>
+  </si>
+  <si>
+    <t>Start date and time</t>
+  </si>
+  <si>
+    <t>Start date and time.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:dateTimePlannedEnd</t>
+  </si>
+  <si>
+    <t>dateTimePlannedEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/date-time-end}
+</t>
+  </si>
+  <si>
+    <t>End date and time</t>
+  </si>
+  <si>
+    <t>End date and time.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:medicationPlannedQuantity</t>
+  </si>
+  <si>
+    <t>medicationPlannedQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/medication-administered-planned-quantity}
+</t>
+  </si>
+  <si>
+    <t>Planned quantity of medication</t>
+  </si>
+  <si>
+    <t>The planned quantity of medication administered.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:medicationAdministeredQuantity</t>
+  </si>
+  <si>
+    <t>medicationAdministeredQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/medication-administered-quantity}
+</t>
+  </si>
+  <si>
+    <t>Administered quantity of medication</t>
+  </si>
+  <si>
+    <t>The administered quantity of medication.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -464,6 +532,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -517,17 +588,13 @@
     <t>MedicationAdministration.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -820,7 +887,7 @@
 </t>
   </si>
   <si>
-    <t>The administred medication</t>
+    <t>The administered medication</t>
   </si>
   <si>
     <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -875,7 +942,7 @@
     <t>MedicationAdministration.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Stay)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/stay)
 </t>
   </si>
   <si>
@@ -916,6 +983,10 @@
     <t>MedicationAdministration.occurence[x]</t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
   </si>
   <si>
@@ -926,9 +997,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -947,11 +1015,78 @@
     <t>occurencePeriod</t>
   </si>
   <si>
-    <t>MedicationAdministration.recorded</t>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.start</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].start</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]:occurencePeriod.end</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x].end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
   </si>
   <si>
     <t>When the MedicationAdministration was first captured in the subject's record</t>
@@ -1782,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1791,9 +1926,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.97265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="31.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1801,7 +1936,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.75390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2757,11 +2892,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2776,17 +2911,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2823,16 +2956,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2856,7 +2987,7 @@
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>75</v>
@@ -2867,43 +2998,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2951,7 +3080,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2972,7 +3101,7 @@
         <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>75</v>
@@ -2983,9 +3112,11 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2994,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3006,17 +3137,15 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -3065,7 +3194,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3077,16 +3206,16 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>75</v>
@@ -3094,12 +3223,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -3120,13 +3251,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3177,19 +3308,19 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -3198,7 +3329,7 @@
         <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>75</v>
@@ -3206,21 +3337,23 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3232,17 +3365,15 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -3279,19 +3410,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3312,7 +3443,7 @@
         <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>75</v>
@@ -3320,21 +3451,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3346,19 +3477,19 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3383,13 +3514,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3407,19 +3538,19 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3428,18 +3559,18 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3450,7 +3581,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3459,23 +3590,21 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3499,13 +3628,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3523,13 +3652,13 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
@@ -3538,24 +3667,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3575,23 +3704,19 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3603,7 +3728,7 @@
         <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>75</v>
@@ -3639,7 +3764,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3648,10 +3773,10 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3660,50 +3785,50 @@
         <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3717,7 +3842,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3741,31 +3866,31 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3774,18 +3899,18 @@
         <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3802,22 +3927,26 @@
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3841,13 +3970,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3865,7 +3994,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3886,18 +4015,18 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3920,18 +4049,20 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3955,13 +4086,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3979,7 +4110,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4000,18 +4131,18 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4019,31 +4150,35 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4055,7 +4190,7 @@
         <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>75</v>
@@ -4091,13 +4226,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -4112,18 +4247,18 @@
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4134,10 +4269,10 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>75</v>
@@ -4146,16 +4281,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4169,7 +4304,7 @@
         <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>75</v>
@@ -4205,39 +4340,39 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4245,7 +4380,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>86</v>
@@ -4254,23 +4389,21 @@
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4295,13 +4428,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4319,10 +4452,10 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>86</v>
@@ -4334,24 +4467,24 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4362,7 +4495,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4371,18 +4504,20 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4407,13 +4542,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4431,13 +4566,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -4446,24 +4581,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4471,13 +4606,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>75</v>
@@ -4486,13 +4621,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4519,13 +4654,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4543,7 +4678,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4564,7 +4699,7 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4572,10 +4707,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4583,13 +4718,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
@@ -4598,16 +4733,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4633,13 +4768,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4657,13 +4792,13 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -4672,24 +4807,24 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4703,24 +4838,26 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4745,13 +4882,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4769,7 +4906,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4784,24 +4921,24 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4809,13 +4946,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>75</v>
@@ -4824,13 +4961,13 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4857,13 +4994,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4881,13 +5018,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -4896,24 +5033,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4936,13 +5073,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4969,13 +5106,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4993,7 +5130,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5011,10 +5148,10 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
@@ -5022,10 +5159,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5039,7 +5176,7 @@
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>75</v>
@@ -5048,15 +5185,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -5081,29 +5220,31 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
@@ -5118,28 +5259,26 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5160,13 +5299,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5232,24 +5371,24 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5257,28 +5396,28 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5329,7 +5468,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5344,24 +5483,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5372,7 +5511,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5384,13 +5523,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5441,13 +5580,13 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
@@ -5459,10 +5598,10 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5481,10 +5620,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5493,16 +5632,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5529,35 +5668,35 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -5566,35 +5705,37 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>87</v>
@@ -5606,13 +5747,13 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5663,13 +5804,13 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
@@ -5678,21 +5819,21 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>321</v>
@@ -5718,13 +5859,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5775,7 +5916,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5784,7 +5925,7 @@
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
@@ -5796,7 +5937,7 @@
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5807,11 +5948,11 @@
         <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5830,16 +5971,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5877,19 +6018,19 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5910,7 +6051,7 @@
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>75</v>
@@ -5918,46 +6059,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -6005,19 +6144,19 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6026,18 +6165,18 @@
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>75</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6051,29 +6190,33 @@
         <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="R38" t="s" s="2">
         <v>75</v>
       </c>
@@ -6093,63 +6236,63 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6157,7 +6300,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>86</v>
@@ -6172,13 +6315,13 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6229,10 +6372,10 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>86</v>
@@ -6244,13 +6387,13 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
@@ -6258,10 +6401,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6272,7 +6415,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -6284,13 +6427,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6317,13 +6460,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6341,13 +6484,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -6356,24 +6499,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6381,13 +6524,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>75</v>
@@ -6396,17 +6539,15 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N41" t="s" s="2">
         <v>354</v>
       </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6431,13 +6572,11 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -6455,13 +6594,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6470,24 +6609,24 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6495,28 +6634,28 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6567,7 +6706,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6582,10 +6721,10 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>362</v>
@@ -6607,13 +6746,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>75</v>
@@ -6622,13 +6761,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>177</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6679,28 +6818,28 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>180</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>75</v>
@@ -6708,24 +6847,24 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>75</v>
@@ -6734,15 +6873,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6791,19 +6932,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>373</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6812,7 +6953,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>180</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6820,42 +6961,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6903,19 +7048,19 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>156</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -6924,7 +7069,7 @@
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>75</v>
@@ -6932,21 +7077,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6958,17 +7103,15 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6993,13 +7136,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7017,28 +7160,28 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -7046,46 +7189,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7133,28 +7272,28 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7162,10 +7301,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7173,10 +7312,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7188,13 +7327,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7221,13 +7360,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -7245,39 +7384,39 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7285,13 +7424,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>75</v>
@@ -7300,16 +7439,16 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7335,13 +7474,13 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -7359,7 +7498,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7374,24 +7513,24 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7402,7 +7541,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7414,13 +7553,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7447,13 +7586,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7471,13 +7610,13 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
@@ -7492,18 +7631,18 @@
         <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7511,13 +7650,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
@@ -7526,17 +7665,15 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
@@ -7561,13 +7698,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>403</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7585,13 +7722,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7600,24 +7737,24 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>405</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7625,13 +7762,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>75</v>
@@ -7640,17 +7777,15 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7699,7 +7834,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7708,10 +7843,10 @@
         <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7720,18 +7855,18 @@
         <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7754,13 +7889,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7811,7 +7946,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7820,7 +7955,7 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
@@ -7832,7 +7967,7 @@
         <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7840,14 +7975,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7866,16 +8001,16 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7913,19 +8048,19 @@
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7946,7 +8081,7 @@
         <v>75</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7954,45 +8089,45 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -8041,19 +8176,19 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
@@ -8062,18 +8197,18 @@
         <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8081,39 +8216,35 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>75</v>
       </c>
@@ -8133,13 +8264,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8157,7 +8288,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8166,7 +8297,7 @@
         <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>98</v>
@@ -8178,18 +8309,18 @@
         <v>75</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>433</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8197,7 +8328,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8209,21 +8340,21 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -8247,13 +8378,13 @@
         <v>75</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>75</v>
+        <v>431</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -8271,7 +8402,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8292,18 +8423,18 @@
         <v>75</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8323,21 +8454,19 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8361,13 +8490,13 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>75</v>
+        <v>437</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>
@@ -8385,7 +8514,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8394,7 +8523,7 @@
         <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>446</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>98</v>
@@ -8406,7 +8535,7 @@
         <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>440</v>
@@ -8414,10 +8543,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8437,23 +8566,21 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8477,13 +8604,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>75</v>
+        <v>445</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8501,7 +8628,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8510,7 +8637,7 @@
         <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>446</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>98</v>
@@ -8522,18 +8649,18 @@
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8556,16 +8683,16 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8615,7 +8742,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8624,7 +8751,7 @@
         <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>98</v>
@@ -8636,18 +8763,18 @@
         <v>75</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8658,7 +8785,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8670,17 +8797,15 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>463</v>
+        <v>88</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>464</v>
+        <v>176</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8729,35 +8854,953 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
+      <c r="O63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AK69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8767,7 +9810,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
